--- a/AE Sakib/Satkhira-2/2022-23/Regulator/Chadni Mukhra/Chadni_mukhra_input.xlsx
+++ b/AE Sakib/Satkhira-2/2022-23/Regulator/Chadni Mukhra/Chadni_mukhra_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>friction Angle of fill soil</t>
   </si>
   <si>
-    <t>Bainbasat_2V_DFR</t>
-  </si>
-  <si>
     <t>surcharge height</t>
   </si>
   <si>
@@ -287,12 +284,15 @@
   </si>
   <si>
     <t>Depth of Appron Below WL i.e. h1 i.e h=h1+h2</t>
+  </si>
+  <si>
+    <t>Chandnimukha_2V_DFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -665,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -676,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.2480000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -687,11 +687,11 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>11.48</v>
+        <v>12.956</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -699,15 +699,15 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>-4.92</v>
+        <v>-6.56</v>
       </c>
       <c r="D5">
         <f>C4-C11</f>
-        <v>14.76</v>
+        <v>17.875999999999998</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -715,11 +715,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>-5.4</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -727,11 +727,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>16.399999999999999</v>
+        <v>18.04</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>-3.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -780,10 +780,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -822,10 +822,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -833,10 +833,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -855,10 +855,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -877,10 +877,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -888,10 +888,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="C23" s="1">
-        <v>9.84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -910,10 +910,10 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>21.32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -929,10 +929,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -940,18 +940,18 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -959,10 +959,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -973,7 +973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -984,26 +984,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>12.68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" s="1">
-        <v>11.35</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1024,7 @@
     <col min="3" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1038,37 +1038,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -1080,37 +1080,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -1119,43 +1119,43 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1164,60 +1164,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,14 +1238,14 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1268,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,175 +1279,171 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-8.3640000000000008</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1">
-        <v>-7.28</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Return_wall_data_MKS!C9*3.28</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Return_wall_data_MKS!C10*3.28</f>
-        <v>10.069599999999999</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Return_wall_data_MKS!C11*3.28</f>
-        <v>6.3303999999999991</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Return_wall_data_MKS!C12*3.28</f>
-        <v>5.5759999999999996</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>0.33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1459,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1466,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,165 +1477,177 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Return_wall_data!C2</f>
+        <v>-8.3640000000000008</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Return_wall_data!C3</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Return_wall_data!C4</f>
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Return_wall_data!C5</f>
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Return_wall_data!C6</f>
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Return_wall_data!C7</f>
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Return_wall_data!C8</f>
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1">
-        <v>-7.28</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Return_wall_data!C9</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Return_wall_data!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Return_wall_data!C11</f>
+        <v>3.44</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Return_wall_data!C12</f>
+        <v>3.44</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1">
+        <f>Return_wall_data!C13</f>
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1651,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1670,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,50 +1681,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Return_wall_data!C2</f>
+        <v>-8.3640000000000008</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-7.28</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
-        <v>9.1199999999999992</v>
+        <f>Return_wall_data!C3</f>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1725,12 +1735,12 @@
         <v>1.968</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1739,94 +1749,94 @@
         <v>2.6240000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>17.065000000000001</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19.48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1">
         <f>Return_wall_data_MKS!C10*3.28</f>
-        <v>10.069599999999999</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Return_wall_data!C11</f>
+        <v>3.44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Return_wall_data_MKS!C11*3.28</f>
-        <v>6.3303999999999991</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <f>Return_wall_data_MKS!C12*3.28</f>
-        <v>5.5759999999999996</v>
+        <f>Return_wall_data!C12</f>
+        <v>3.44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>0.33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Satkhira-2/2022-23/Regulator/Chadni Mukhra/Chadni_mukhra_input.xlsx
+++ b/AE Sakib/Satkhira-2/2022-23/Regulator/Chadni Mukhra/Chadni_mukhra_input.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Basic_Parameter" sheetId="3" r:id="rId3"/>
-    <sheet name="Basin Input" sheetId="4" r:id="rId4"/>
-    <sheet name="structure_name" sheetId="5" r:id="rId5"/>
-    <sheet name="Return_wall_data" sheetId="6" r:id="rId6"/>
-    <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
-    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="Basin Input" sheetId="4" r:id="rId5"/>
+    <sheet name="structure_name" sheetId="5" r:id="rId6"/>
+    <sheet name="Return_wall_data" sheetId="6" r:id="rId7"/>
+    <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId8"/>
+    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,9 +86,6 @@
     <t>Vent Height</t>
   </si>
   <si>
-    <t>Discharge/sq mile</t>
-  </si>
-  <si>
     <t>cfs/sqmile</t>
   </si>
   <si>
@@ -287,6 +285,9 @@
   </si>
   <si>
     <t>Chandnimukha_2V_DFR</t>
+  </si>
+  <si>
+    <t>Runoff/sq mile</t>
   </si>
 </sst>
 </file>
@@ -302,12 +303,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,12 +335,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,7 +634,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -626,7 +646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -636,17 +656,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -668,30 +688,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>5.2480000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>12.956</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -707,7 +727,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -719,7 +739,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -731,7 +751,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -743,7 +763,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -752,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -761,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -772,18 +792,18 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -792,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -803,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -814,53 +834,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>27.55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>31.48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -869,20 +889,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -891,39 +911,39 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
         <v>13.12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -932,17 +952,17 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
@@ -951,42 +971,42 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>19.68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -995,15 +1015,15 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C33" s="1">
-        <v>8.1999999999999993</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1013,211 +1033,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="12.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>425</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>425</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>425</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>425</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>425</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>425</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>425</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>425</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>425</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>425</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>425</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>425</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>425</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>TAN(11)</f>
+        <v>-225.95084645419516</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f>TAN(RADIANS(11))</f>
+        <v>0.19438030913771848</v>
       </c>
     </row>
   </sheetData>
@@ -1227,25 +1060,211 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>86</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>425</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>425</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>425</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>425</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>425</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>425</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>425</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>425</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>425</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>425</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>425</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>425</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>425</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1255,195 +1274,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-8.3640000000000008</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1455,18 +1304,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,177 +1326,171 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-8.3640000000000008</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1">
-        <f>Return_wall_data!C2</f>
-        <v>-8.3640000000000008</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Return_wall_data!C3</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Return_wall_data!C4</f>
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Return_wall_data!C5</f>
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Return_wall_data!C6</f>
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Return_wall_data!C7</f>
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1">
-        <f>Return_wall_data!C8</f>
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Return_wall_data!C9</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Return_wall_data!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Return_wall_data!C11</f>
-        <v>3.44</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Return_wall_data!C12</f>
-        <v>3.44</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Return_wall_data!C13</f>
-        <v>0.33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1657,20 +1500,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,15 +1524,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <f>Return_wall_data!C2</f>
@@ -1697,22 +1540,226 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <f>Return_wall_data!C3</f>
-        <v>8.1999999999999993</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Return_wall_data!C4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Return_wall_data!C5</f>
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Return_wall_data!C6</f>
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Return_wall_data!C7</f>
+        <v>0.47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Return_wall_data!C8</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Return_wall_data!C9</f>
+        <v>22.36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Return_wall_data!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Return_wall_data!C11</f>
+        <v>22.36</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Return_wall_data!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Return_wall_data!C13</f>
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Return_wall_data!C2</f>
+        <v>-8.3640000000000008</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Return_wall_data!C3</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -1721,12 +1768,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1735,12 +1782,12 @@
         <v>1.968</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1749,12 +1796,12 @@
         <v>2.6240000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1763,26 +1810,26 @@
         <v>20.5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>19.48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1792,51 +1839,51 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1">
         <f>Return_wall_data!C11</f>
-        <v>3.44</v>
+        <v>22.36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1">
         <f>Return_wall_data!C12</f>
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>0.33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
